--- a/data/kdyg.xlsx
+++ b/data/kdyg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schneehertz\Desktop\redice\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e53f35dacc1a67b/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C86E3D-7BA5-4FD8-B284-21AF28613270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{29C86E3D-7BA5-4FD8-B284-21AF28613270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB37BF07-0773-4B91-A33B-D5C7C7386712}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1281FF64-B9D8-444E-B2FF-9C241F5A6C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{1281FF64-B9D8-444E-B2FF-9C241F5A6C92}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="4" r:id="rId1"/>
@@ -37,24 +37,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initBackpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标! 宝可梦大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pokemonMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自真新镇的你，踏上了成为宝可梦大师的旅程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是一名宝可梦训练家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年你已经成年，是时候离开家，踏上旅程了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去收服不同的宝可梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去邂逅许多的人和事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去挑战强大的道馆馆主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现自己的梦想，成为宝可梦大师吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>onetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +231,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>baseToken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>excludeToken</t>
+  </si>
+  <si>
     <t>addToken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +253,42 @@
     <t>40cM8KGa</t>
   </si>
   <si>
+    <t>牛蛙君</t>
+  </si>
+  <si>
+    <t>ygie-2-2|ygoz-3-2</t>
+  </si>
+  <si>
+    <t>{"immediate": "牛蛙君"}</t>
+  </si>
+  <si>
+    <t>98k68630</t>
+  </si>
+  <si>
+    <t>杰尼龟喷壶</t>
+  </si>
+  <si>
+    <t>你获得了限量版的杰尼龟喷壶</t>
+  </si>
+  <si>
+    <t>ygoo-2-2|rbgs-3-2|sgr-2-3|ygd-3-3</t>
+  </si>
+  <si>
+    <t>[{"backpack": "背包", "action": "add", "name": "杰尼龟喷壶"}]</t>
+  </si>
+  <si>
+    <t>14YfCKUE</t>
+  </si>
+  <si>
+    <t>胡说树</t>
+  </si>
+  <si>
+    <t>rbgps-2-1|ygf-2-2|ygg-2-3</t>
+  </si>
+  <si>
+    <t>{"immediate": "胡说树"}</t>
+  </si>
+  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,247 +336,117 @@
     <t>6W7WGZDd</t>
   </si>
   <si>
-    <t>bgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>野生的牛蛙君出现了</t>
+  </si>
+  <si>
+    <t>bga</t>
+  </si>
+  <si>
+    <t>你选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"label": "投出精灵球", "redirect": 2}, {"label": "什么也不做", "redirect": 3}]</t>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你向牛蛙君投出精灵球</t>
   </si>
   <si>
     <t>roll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>你收服了牛蛙君</t>
+  </si>
+  <si>
+    <t>精灵球爆开了，收服失败</t>
+  </si>
+  <si>
+    <t>你无视了牛蛙君，继续自己的旅程</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛蛙君成为了你的伙伴</t>
+  </si>
+  <si>
+    <t>{"水": 1}</t>
+  </si>
+  <si>
+    <t>[{"backpack": "pm", "action": "add", "name": "牛蛙君"}]</t>
+  </si>
+  <si>
+    <t>牛蛙君还在原处</t>
+  </si>
+  <si>
+    <t>牛蛙君逃走了</t>
+  </si>
+  <si>
+    <t>你只能继续前行</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>uUDk768v</t>
+  </si>
+  <si>
+    <t>路口有一颗奇怪的树阻挡了你的去路</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>backpack['背包']</t>
+  </si>
+  <si>
+    <t>_.include(a, '杰尼龟喷壶')</t>
+  </si>
+  <si>
+    <t>你用喷壶给奇怪的树浇了水，树活动了起来</t>
+  </si>
+  <si>
+    <t>你摸了奇怪的树的树干，树好像扭动了一下</t>
+  </si>
+  <si>
+    <t>你向胡说树投出精灵球</t>
+  </si>
+  <si>
+    <t>你收服了胡说树</t>
+  </si>
+  <si>
+    <t>你无视了胡说树，胡说树逃走了</t>
+  </si>
+  <si>
+    <t>胡说树成为了你的伙伴</t>
+  </si>
+  <si>
+    <t>{"岩": 1}</t>
+  </si>
+  <si>
+    <t>[{"backpack": "pm", "action": "add", "name": "胡说树"}]</t>
+  </si>
+  <si>
+    <t>胡说树还在原处</t>
+  </si>
+  <si>
+    <t>胡说树逃走了</t>
+  </si>
+  <si>
+    <t>树阻挡了你的去路，你只能另寻别路</t>
   </si>
   <si>
     <t>randomId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干扰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pokemonMaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backpack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮卡丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"immediate": "皮卡丘"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sgf-1-3|ygl-2-2|sgoz-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野生的皮卡丘从路边跳了出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你收服了皮卡丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可惜，收服失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮卡丘成为了你的伙伴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你向皮卡丘投掷出精灵球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"label": "投出精灵球", "redirect": 2}, {"label": "逃跑", "redirect": 3}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮卡丘还在原处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮卡丘逃走了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"电": 1, "速度": 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你逃跑了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是一名宝可梦训练家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年你已经成年，是时候离开家，踏上旅程了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去收服不同的宝可梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去邂逅许多的人和事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去挑战强大的道馆馆主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现自己的梦想，成为宝可梦大师吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标! 宝可梦大师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自真新镇的你，踏上了成为宝可梦大师的旅程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initBackpack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"backpack": "pm", "action": "add", "name": "皮神"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +475,13 @@
       <color theme="1"/>
       <name val="Var(--ff-mono)"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -426,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +537,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,62 +837,62 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="46.875" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -818,35 +901,35 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -854,10 +937,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="D5" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -865,10 +948,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="D6" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -876,10 +959,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="D7" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -887,7 +970,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="E8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -895,7 +978,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="E9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -903,7 +986,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="E10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -911,7 +994,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="E11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -919,7 +1002,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="E12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -927,7 +1010,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="E13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -935,7 +1018,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="E14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -943,7 +1026,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="E15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -951,7 +1034,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="E16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -959,7 +1042,7 @@
     </row>
     <row r="17" spans="5:6">
       <c r="E17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -967,7 +1050,7 @@
     </row>
     <row r="18" spans="5:6">
       <c r="E18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -975,7 +1058,7 @@
     </row>
     <row r="19" spans="5:6">
       <c r="E19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -983,7 +1066,7 @@
     </row>
     <row r="20" spans="5:6">
       <c r="E20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -991,7 +1074,7 @@
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1007,120 +1090,176 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE2E443-E6EB-412F-BAF1-9F98AF5F7CB8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="I3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13" ht="14.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13" ht="14.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13" ht="14.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" ht="14.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" ht="14.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" ht="14.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" ht="14.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" ht="14.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" ht="14.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" ht="14.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" ht="14.25">
       <c r="D24" s="1"/>
     </row>
   </sheetData>
@@ -1133,113 +1272,119 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DC7B24-0B95-421A-9B48-BA71A460B935}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.75" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.21875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="26.25" style="2" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33" customHeight="1">
+    <row r="1" spans="1:23" ht="33" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="Q1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="T1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="U1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="V1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="41.4">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="42.75">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1248,117 +1393,315 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="O3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23" ht="14.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>92</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="O6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="14.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10">
         <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14.25">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="42.75">
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28.5">
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14.25">
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1371,79 +1714,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18175D9E-5FE9-4540-BD48-7CA7EB8C33AE}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))</f>
-        <v>O5A1OHiB</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B10" ca="1" si="0">CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))&amp;CHAR(CHOOSE(RANDBETWEEN(1,3),RANDBETWEEN(48,57),RANDBETWEEN(65,90),RANDBETWEEN(97,122)))</f>
-        <v>UILP2IQr</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5AeM4QuP</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>4kHlvUx4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gT21R4lc</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>9v9bfOj5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>EMDvJU8p</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>eO33851L</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>TyILJEVh</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14iH9j78</v>
+        <v>30G5Mesh</v>
       </c>
     </row>
   </sheetData>
